--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRAX\python\CCRU\PROS-4714\before\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Changes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Canteen" sheetId="1" r:id="rId1"/>
+    <sheet name="Changes" sheetId="2" r:id="rId2"/>
+    <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AO$41</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="185">
   <si>
     <t>Sorting</t>
   </si>
@@ -161,6 +165,9 @@
     <t>To include in first calculation?</t>
   </si>
   <si>
+    <t>Target Execution 2018</t>
+  </si>
+  <si>
     <t>RD38010011</t>
   </si>
   <si>
@@ -179,7 +186,7 @@
     <t>Представленность SSD</t>
   </si>
   <si>
-    <t>Weighted Average </t>
+    <t>Weighted Average</t>
   </si>
   <si>
     <t>Y</t>
@@ -614,14 +621,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -630,22 +634,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -653,7 +642,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -666,7 +655,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -691,9 +680,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -761,394 +757,302 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="10" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="82">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1207,36 +1111,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
+    <col min="1" max="7" width="8.5703125"/>
+    <col min="8" max="8" width="18.140625"/>
+    <col min="9" max="12" width="8.5703125"/>
+    <col min="13" max="13" width="27.5703125"/>
+    <col min="14" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,31 +1566,34 @@
       <c r="AO1" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+    <row r="2" spans="1:42" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1406,10 +1615,10 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
@@ -1418,84 +1627,85 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" s="15" t="n">
+      <c r="AK2" s="15">
         <v>2</v>
       </c>
-      <c r="AL2" s="18" t="n">
+      <c r="AL2" s="18">
         <v>1</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="20"/>
       <c r="AO2" s="12"/>
+      <c r="AP2" s="21"/>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+    <row r="3" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="H3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="17">
         <v>1</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="25" t="n">
+        <v>51</v>
+      </c>
+      <c r="M3" s="26">
         <v>5449000008046</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
       <c r="AB3" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="27" t="n">
-        <v>0.024996</v>
+        <v>58</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>2.4996000000000001E-2</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -1503,84 +1713,85 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
-      <c r="AK3" s="15" t="n">
+      <c r="AK3" s="15">
         <v>3</v>
       </c>
-      <c r="AL3" s="18" t="n">
+      <c r="AL3" s="18">
         <v>2</v>
       </c>
       <c r="AM3" s="15"/>
-      <c r="AN3" s="28" t="s">
+      <c r="AN3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="21"/>
+    </row>
+    <row r="4" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="17" t="n">
+      <c r="G4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="17">
         <v>1</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="25" t="n">
+        <v>59</v>
+      </c>
+      <c r="M4" s="26">
         <v>5449000020987</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
       <c r="X4" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="27" t="n">
-        <v>0.024996</v>
+        <v>58</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>2.4996000000000001E-2</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -1588,169 +1799,171 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="15" t="n">
+      <c r="AK4" s="15">
         <v>3</v>
       </c>
-      <c r="AL4" s="18" t="n">
+      <c r="AL4" s="18">
         <v>3</v>
       </c>
       <c r="AM4" s="15"/>
-      <c r="AN4" s="28" t="s">
+      <c r="AN4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="21"/>
+    </row>
+    <row r="5" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="17" t="n">
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="25" t="n">
+        <v>61</v>
+      </c>
+      <c r="M5" s="26">
         <v>54491472</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD5" s="31" t="n">
-        <v>0.014004</v>
-      </c>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>1.4004000000000001E-2</v>
+      </c>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="15">
         <v>3</v>
       </c>
-      <c r="AL5" s="18" t="n">
+      <c r="AL5" s="18">
         <v>4</v>
       </c>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="34" t="s">
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="21"/>
+    </row>
+    <row r="6" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="35"/>
-    </row>
-    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="17" t="n">
+      <c r="G6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="17">
         <v>1</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="M6" s="26">
         <v>54491069</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
       <c r="P6" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD6" s="27" t="n">
-        <v>0.014004</v>
+        <v>58</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>1.4004000000000001E-2</v>
       </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -1758,84 +1971,85 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="15" t="n">
+      <c r="AK6" s="15">
         <v>3</v>
       </c>
-      <c r="AL6" s="18" t="n">
+      <c r="AL6" s="18">
         <v>5</v>
       </c>
       <c r="AM6" s="15"/>
-      <c r="AN6" s="28" t="s">
+      <c r="AN6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="21"/>
+    </row>
+    <row r="7" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="17" t="n">
+      <c r="G7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="17">
         <v>1</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="25" t="n">
+        <v>65</v>
+      </c>
+      <c r="M7" s="26">
         <v>40822938</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD7" s="27" t="n">
-        <v>0.014004</v>
+        <v>58</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>1.4004000000000001E-2</v>
       </c>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -1843,84 +2057,85 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="15" t="n">
+      <c r="AK7" s="15">
         <v>3</v>
       </c>
-      <c r="AL7" s="18" t="n">
+      <c r="AL7" s="18">
         <v>6</v>
       </c>
       <c r="AM7" s="15"/>
-      <c r="AN7" s="28" t="s">
+      <c r="AN7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="21"/>
+    </row>
+    <row r="8" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="17" t="n">
+      <c r="G8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="17">
         <v>1</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="25" t="n">
+        <v>67</v>
+      </c>
+      <c r="M8" s="26">
         <v>5449000014535</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD8" s="36" t="n">
-        <v>0.014004</v>
+        <v>58</v>
+      </c>
+      <c r="AD8" s="37">
+        <v>1.4004000000000001E-2</v>
       </c>
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
@@ -1928,84 +2143,85 @@
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
-      <c r="AK8" s="15" t="n">
+      <c r="AK8" s="15">
         <v>3</v>
       </c>
-      <c r="AL8" s="18" t="n">
+      <c r="AL8" s="18">
         <v>7</v>
       </c>
       <c r="AM8" s="17"/>
-      <c r="AN8" s="28" t="s">
+      <c r="AN8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="21"/>
+    </row>
+    <row r="9" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AO8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="17" t="n">
+      <c r="G9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="17">
         <v>1</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="25" t="n">
+        <v>69</v>
+      </c>
+      <c r="M9" s="26">
         <v>5449000011527</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD9" s="36" t="n">
-        <v>0.013992</v>
+        <v>58</v>
+      </c>
+      <c r="AD9" s="37">
+        <v>1.3991999999999999E-2</v>
       </c>
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
@@ -2013,153 +2229,155 @@
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
-      <c r="AK9" s="15" t="n">
+      <c r="AK9" s="15">
         <v>3</v>
       </c>
-      <c r="AL9" s="18" t="n">
+      <c r="AL9" s="18">
         <v>8</v>
       </c>
       <c r="AM9" s="17"/>
-      <c r="AN9" s="28" t="s">
-        <v>45</v>
+      <c r="AN9" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="AO9" s="17"/>
+      <c r="AP9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+    <row r="10" spans="1:42" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="37" t="s">
         <v>42</v>
       </c>
+      <c r="C10" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="38" t="s">
+      <c r="G10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="37" t="n">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="38">
         <v>2</v>
       </c>
-      <c r="AL10" s="18" t="n">
+      <c r="AL10" s="18">
         <v>9</v>
       </c>
       <c r="AM10" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN10" s="20"/>
       <c r="AO10" s="12"/>
+      <c r="AP10" s="21"/>
     </row>
-    <row r="11" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+    <row r="11" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="23" t="s">
         <v>75</v>
       </c>
+      <c r="G11" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I11" s="17">
         <v>1</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="25" t="n">
+        <v>75</v>
+      </c>
+      <c r="M11" s="26">
         <v>90494956</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD11" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE11" s="17"/>
       <c r="AF11" s="17"/>
@@ -2167,84 +2385,85 @@
       <c r="AH11" s="17"/>
       <c r="AI11" s="17"/>
       <c r="AJ11" s="17"/>
-      <c r="AK11" s="15" t="n">
+      <c r="AK11" s="15">
         <v>3</v>
       </c>
-      <c r="AL11" s="18" t="n">
+      <c r="AL11" s="18">
         <v>10</v>
       </c>
       <c r="AM11" s="17"/>
-      <c r="AN11" s="28" t="s">
+      <c r="AN11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="21"/>
+    </row>
+    <row r="12" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AO11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="23" t="s">
         <v>77</v>
       </c>
+      <c r="G12" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I12" s="17">
         <v>1</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="25" t="n">
+        <v>77</v>
+      </c>
+      <c r="M12" s="26">
         <v>40822426</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
       <c r="AB12" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD12" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
@@ -2252,84 +2471,85 @@
       <c r="AH12" s="17"/>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
-      <c r="AK12" s="15" t="n">
+      <c r="AK12" s="15">
         <v>3</v>
       </c>
-      <c r="AL12" s="18" t="n">
+      <c r="AL12" s="18">
         <v>11</v>
       </c>
       <c r="AM12" s="17"/>
-      <c r="AN12" s="28" t="s">
+      <c r="AN12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="21"/>
+    </row>
+    <row r="13" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AO12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="23" t="s">
         <v>79</v>
       </c>
+      <c r="G13" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="25" t="n">
+        <v>79</v>
+      </c>
+      <c r="M13" s="26">
         <v>90494406</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD13" s="36" t="n">
-        <v>0.012992</v>
+        <v>58</v>
+      </c>
+      <c r="AD13" s="37">
+        <v>1.2992E-2</v>
       </c>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
@@ -2337,153 +2557,155 @@
       <c r="AH13" s="17"/>
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
-      <c r="AK13" s="15" t="n">
+      <c r="AK13" s="15">
         <v>3</v>
       </c>
-      <c r="AL13" s="18" t="n">
+      <c r="AL13" s="18">
         <v>12</v>
       </c>
       <c r="AM13" s="17"/>
-      <c r="AN13" s="28" t="s">
+      <c r="AN13" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="21"/>
+    </row>
+    <row r="14" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AO13" s="17"/>
-    </row>
-    <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="F14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="38">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" s="39" t="s">
-        <v>82</v>
+      <c r="AM14" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="AN14" s="20"/>
       <c r="AO14" s="17"/>
+      <c r="AP14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+    <row r="15" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="G15" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="H15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="25" t="n">
+        <v>84</v>
+      </c>
+      <c r="M15" s="26">
         <v>5449000045720</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD15" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD15" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE15" s="17"/>
       <c r="AF15" s="17"/>
@@ -2491,84 +2713,85 @@
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
-      <c r="AK15" s="15" t="n">
+      <c r="AK15" s="15">
         <v>3</v>
       </c>
-      <c r="AL15" s="18" t="n">
+      <c r="AL15" s="18">
         <v>14</v>
       </c>
       <c r="AM15" s="17"/>
-      <c r="AN15" s="28" t="s">
-        <v>80</v>
+      <c r="AN15" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="AO15" s="17"/>
+      <c r="AP15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+    <row r="16" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="23" t="s">
         <v>86</v>
       </c>
+      <c r="G16" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="H16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I16" s="17">
         <v>1</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="25" t="n">
+        <v>86</v>
+      </c>
+      <c r="M16" s="26">
         <v>5449000193124</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
       <c r="AB16" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD16" s="36" t="n">
-        <v>0.012992</v>
+        <v>58</v>
+      </c>
+      <c r="AD16" s="37">
+        <v>1.2992E-2</v>
       </c>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
@@ -2576,84 +2799,85 @@
       <c r="AH16" s="17"/>
       <c r="AI16" s="17"/>
       <c r="AJ16" s="17"/>
-      <c r="AK16" s="15" t="n">
+      <c r="AK16" s="15">
         <v>3</v>
       </c>
-      <c r="AL16" s="18" t="n">
+      <c r="AL16" s="18">
         <v>15</v>
       </c>
       <c r="AM16" s="17"/>
-      <c r="AN16" s="28" t="s">
-        <v>80</v>
+      <c r="AN16" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="AO16" s="17"/>
+      <c r="AP16" s="21"/>
     </row>
-    <row r="17" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+    <row r="17" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="23" t="s">
         <v>88</v>
       </c>
+      <c r="G17" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="H17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I17" s="17">
         <v>1</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="25" t="n">
+        <v>88</v>
+      </c>
+      <c r="M17" s="26">
         <v>5449000189301</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
       <c r="AB17" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD17" s="36" t="n">
-        <v>0.012992</v>
+        <v>58</v>
+      </c>
+      <c r="AD17" s="37">
+        <v>1.2992E-2</v>
       </c>
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
@@ -2661,84 +2885,85 @@
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
-      <c r="AK17" s="15" t="n">
+      <c r="AK17" s="15">
         <v>3</v>
       </c>
-      <c r="AL17" s="18" t="n">
+      <c r="AL17" s="18">
         <v>16</v>
       </c>
       <c r="AM17" s="17"/>
-      <c r="AN17" s="28" t="s">
-        <v>80</v>
+      <c r="AN17" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="AO17" s="17"/>
+      <c r="AP17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="23" t="s">
         <v>90</v>
       </c>
+      <c r="G18" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="H18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I18" s="17">
         <v>1</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="25" t="n">
+        <v>90</v>
+      </c>
+      <c r="M18" s="26">
         <v>5449000233615</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD18" s="36" t="n">
-        <v>0.012012</v>
+        <v>58</v>
+      </c>
+      <c r="AD18" s="37">
+        <v>1.2012E-2</v>
       </c>
       <c r="AE18" s="17"/>
       <c r="AF18" s="17"/>
@@ -2746,153 +2971,155 @@
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
-      <c r="AK18" s="15" t="n">
+      <c r="AK18" s="15">
         <v>3</v>
       </c>
-      <c r="AL18" s="18" t="n">
+      <c r="AL18" s="18">
         <v>17</v>
       </c>
       <c r="AM18" s="17"/>
-      <c r="AN18" s="28" t="s">
-        <v>80</v>
+      <c r="AN18" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="AO18" s="17"/>
+      <c r="AP18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+    <row r="19" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="37" t="s">
         <v>42</v>
       </c>
+      <c r="C19" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="38" t="s">
+      <c r="G19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AC19" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="37" t="n">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="38">
         <v>2</v>
       </c>
-      <c r="AL19" s="18" t="n">
+      <c r="AL19" s="18">
         <v>18</v>
       </c>
-      <c r="AM19" s="39" t="s">
-        <v>93</v>
+      <c r="AM19" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="AN19" s="20"/>
       <c r="AO19" s="17"/>
+      <c r="AP19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+    <row r="20" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="23" t="s">
         <v>95</v>
       </c>
+      <c r="G20" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="25" t="n">
+        <v>95</v>
+      </c>
+      <c r="M20" s="26">
         <v>4607174579309</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
       <c r="AB20" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD20" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD20" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
@@ -2900,84 +3127,85 @@
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
-      <c r="AK20" s="15" t="n">
+      <c r="AK20" s="15">
         <v>3</v>
       </c>
-      <c r="AL20" s="18" t="n">
+      <c r="AL20" s="18">
         <v>19</v>
       </c>
       <c r="AM20" s="17"/>
-      <c r="AN20" s="28" t="s">
-        <v>91</v>
+      <c r="AN20" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO20" s="17"/>
+      <c r="AP20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+    <row r="21" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="23" t="s">
         <v>97</v>
       </c>
+      <c r="G21" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="H21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I21" s="17">
         <v>1</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="25" t="n">
+        <v>97</v>
+      </c>
+      <c r="M21" s="26">
         <v>4607174577787</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
       <c r="U21" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD21" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD21" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
@@ -2985,84 +3213,85 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
-      <c r="AK21" s="15" t="n">
+      <c r="AK21" s="15">
         <v>3</v>
       </c>
-      <c r="AL21" s="18" t="n">
+      <c r="AL21" s="18">
         <v>20</v>
       </c>
       <c r="AM21" s="17"/>
-      <c r="AN21" s="28" t="s">
-        <v>91</v>
+      <c r="AN21" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO21" s="17"/>
+      <c r="AP21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+    <row r="22" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="23" t="s">
         <v>99</v>
       </c>
+      <c r="G22" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="H22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I22" s="17">
         <v>1</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="25" t="n">
+        <v>99</v>
+      </c>
+      <c r="M22" s="26">
         <v>4607174579286</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD22" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD22" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17"/>
@@ -3070,84 +3299,85 @@
       <c r="AH22" s="17"/>
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
-      <c r="AK22" s="15" t="n">
+      <c r="AK22" s="15">
         <v>3</v>
       </c>
-      <c r="AL22" s="18" t="n">
+      <c r="AL22" s="18">
         <v>21</v>
       </c>
       <c r="AM22" s="17"/>
-      <c r="AN22" s="28" t="s">
-        <v>91</v>
+      <c r="AN22" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO22" s="17"/>
+      <c r="AP22" s="21"/>
     </row>
-    <row r="23" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+    <row r="23" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="23" t="s">
         <v>101</v>
       </c>
+      <c r="G23" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="H23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I23" s="17">
         <v>1</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="25" t="n">
+        <v>101</v>
+      </c>
+      <c r="M23" s="26">
         <v>4607174579323</v>
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD23" s="36" t="n">
-        <v>0.025004</v>
+        <v>58</v>
+      </c>
+      <c r="AD23" s="37">
+        <v>2.5003999999999998E-2</v>
       </c>
       <c r="AE23" s="17"/>
       <c r="AF23" s="17"/>
@@ -3155,84 +3385,85 @@
       <c r="AH23" s="17"/>
       <c r="AI23" s="17"/>
       <c r="AJ23" s="17"/>
-      <c r="AK23" s="15" t="n">
+      <c r="AK23" s="15">
         <v>3</v>
       </c>
-      <c r="AL23" s="18" t="n">
+      <c r="AL23" s="18">
         <v>22</v>
       </c>
       <c r="AM23" s="17"/>
-      <c r="AN23" s="28" t="s">
-        <v>91</v>
+      <c r="AN23" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO23" s="17"/>
+      <c r="AP23" s="21"/>
     </row>
-    <row r="24" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+    <row r="24" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="23" t="s">
         <v>103</v>
       </c>
+      <c r="G24" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="H24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I24" s="17">
         <v>1</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="41" t="n">
+        <v>103</v>
+      </c>
+      <c r="M24" s="42">
         <v>4607174579729</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD24" s="36" t="n">
-        <v>0.012012</v>
+        <v>58</v>
+      </c>
+      <c r="AD24" s="37">
+        <v>1.2012E-2</v>
       </c>
       <c r="AE24" s="17"/>
       <c r="AF24" s="17"/>
@@ -3240,84 +3471,85 @@
       <c r="AH24" s="17"/>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
-      <c r="AK24" s="15" t="n">
+      <c r="AK24" s="15">
         <v>3</v>
       </c>
-      <c r="AL24" s="18" t="n">
+      <c r="AL24" s="18">
         <v>23</v>
       </c>
       <c r="AM24" s="17"/>
-      <c r="AN24" s="28" t="s">
-        <v>91</v>
+      <c r="AN24" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO24" s="17"/>
+      <c r="AP24" s="21"/>
     </row>
-    <row r="25" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+    <row r="25" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="43" t="s">
         <v>105</v>
       </c>
+      <c r="G25" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="H25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I25" s="17">
         <v>1</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" s="25" t="n">
+        <v>105</v>
+      </c>
+      <c r="M25" s="26">
         <v>4607174579248</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD25" s="36" t="n">
-        <v>0.012012</v>
+        <v>58</v>
+      </c>
+      <c r="AD25" s="37">
+        <v>1.2012E-2</v>
       </c>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
@@ -3325,84 +3557,85 @@
       <c r="AH25" s="17"/>
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
-      <c r="AK25" s="15" t="n">
+      <c r="AK25" s="15">
         <v>3</v>
       </c>
-      <c r="AL25" s="18" t="n">
+      <c r="AL25" s="18">
         <v>24</v>
       </c>
       <c r="AM25" s="17"/>
-      <c r="AN25" s="28" t="s">
-        <v>91</v>
+      <c r="AN25" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO25" s="17"/>
+      <c r="AP25" s="21"/>
     </row>
-    <row r="26" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+    <row r="26" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>107</v>
       </c>
+      <c r="G26" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="H26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I26" s="17">
         <v>1</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M26" s="25" t="n">
+        <v>107</v>
+      </c>
+      <c r="M26" s="26">
         <v>4607174578265</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
       <c r="X26" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD26" s="36" t="n">
-        <v>0.009996</v>
+        <v>58</v>
+      </c>
+      <c r="AD26" s="37">
+        <v>9.9959999999999997E-3</v>
       </c>
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
@@ -3410,84 +3643,85 @@
       <c r="AH26" s="17"/>
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
-      <c r="AK26" s="15" t="n">
+      <c r="AK26" s="15">
         <v>3</v>
       </c>
-      <c r="AL26" s="18" t="n">
+      <c r="AL26" s="18">
         <v>25</v>
       </c>
       <c r="AM26" s="17"/>
-      <c r="AN26" s="28" t="s">
-        <v>91</v>
+      <c r="AN26" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO26" s="17"/>
+      <c r="AP26" s="21"/>
     </row>
-    <row r="27" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+    <row r="27" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>109</v>
       </c>
+      <c r="G27" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="H27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I27" s="17">
         <v>1</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M27" s="25" t="n">
+        <v>109</v>
+      </c>
+      <c r="M27" s="26">
         <v>4607174578586</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="U27" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
       <c r="X27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD27" s="36" t="n">
-        <v>0.009996</v>
+        <v>58</v>
+      </c>
+      <c r="AD27" s="37">
+        <v>9.9959999999999997E-3</v>
       </c>
       <c r="AE27" s="17"/>
       <c r="AF27" s="17"/>
@@ -3495,567 +3729,580 @@
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
-      <c r="AK27" s="15" t="n">
+      <c r="AK27" s="15">
         <v>3</v>
       </c>
-      <c r="AL27" s="18" t="n">
+      <c r="AL27" s="18">
         <v>26</v>
       </c>
       <c r="AM27" s="17"/>
-      <c r="AN27" s="28" t="s">
-        <v>91</v>
+      <c r="AN27" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO27" s="17"/>
+      <c r="AP27" s="21"/>
     </row>
-    <row r="28" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+    <row r="28" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="G28" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="H28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I28" s="17">
         <v>1</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="25" t="n">
+        <v>111</v>
+      </c>
+      <c r="M28" s="26">
         <v>4607174579262</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
       <c r="X28" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD28" s="36" t="n">
-        <v>0.009968</v>
+        <v>58</v>
+      </c>
+      <c r="AD28" s="37">
+        <v>9.9679999999999994E-3</v>
       </c>
       <c r="AF28" s="17"/>
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="15" t="n">
+      <c r="AK28" s="15">
         <v>3</v>
       </c>
-      <c r="AL28" s="18" t="n">
+      <c r="AL28" s="18">
         <v>27</v>
       </c>
       <c r="AM28" s="17"/>
-      <c r="AN28" s="28" t="s">
-        <v>91</v>
+      <c r="AN28" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="AO28" s="17"/>
+      <c r="AP28" s="21"/>
     </row>
-    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+    <row r="29" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="44" t="s">
+      <c r="B29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="45" t="s">
+      <c r="D29" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="F29" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="G29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="47" t="n">
+      <c r="H29" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="48">
         <v>1</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="47" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q29" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC29" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD29" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="51">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="52">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC29" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD29" s="49" t="n">
+      <c r="I30" s="48">
+        <v>8</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" s="46"/>
+      <c r="P30" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="W30" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC30" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD30" s="50">
         <v>0.1</v>
       </c>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="50" t="n">
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="51">
         <v>2</v>
       </c>
-      <c r="AL29" s="51" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
+      <c r="AL30" s="52">
+        <v>29</v>
+      </c>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="44" t="s">
+    <row r="31" spans="1:42" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="C31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30" s="47" t="s">
+      <c r="D31" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="48">
+        <v>2</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="N30" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="R30" s="53" t="s">
+      <c r="M31" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O31" s="46"/>
+      <c r="P31" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="47" t="s">
+      <c r="R31" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="W30" s="54" t="s">
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC30" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD30" s="49" t="n">
+      <c r="W31" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD31" s="50">
         <v>0.1</v>
       </c>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="50" t="n">
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="51">
         <v>2</v>
       </c>
-      <c r="AL30" s="51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
+      <c r="AL31" s="52">
+        <v>30</v>
+      </c>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="44" t="s">
+    <row r="32" spans="1:42" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="R31" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="W31" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC31" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD31" s="49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL31" s="51" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-    </row>
-    <row r="32" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>130</v>
+      <c r="D32" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="45" t="s">
         <v>132</v>
       </c>
+      <c r="G32" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="H32" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
       <c r="P32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
+        <v>135</v>
+      </c>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
       <c r="AB32" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD32" s="36" t="n">
+        <v>136</v>
+      </c>
+      <c r="AD32" s="37">
         <v>0.08</v>
       </c>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
-      <c r="AG32" s="57" t="s">
-        <v>136</v>
+      <c r="AG32" s="58" t="s">
+        <v>137</v>
       </c>
       <c r="AH32" s="17"/>
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
-      <c r="AK32" s="10" t="n">
+      <c r="AK32" s="10">
         <v>2</v>
       </c>
-      <c r="AL32" s="51" t="n">
+      <c r="AL32" s="52">
         <v>31</v>
       </c>
-      <c r="AM32" s="58" t="s">
-        <v>137</v>
+      <c r="AM32" s="59" t="s">
+        <v>138</v>
       </c>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
+      <c r="AP32" s="21"/>
     </row>
-    <row r="33" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+    <row r="33" spans="1:42" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="44" t="s">
+      <c r="B33" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>130</v>
+      <c r="D33" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="G33" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="17" t="n">
+      <c r="H33" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="17">
         <v>0.5</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="47"/>
+      <c r="L33" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
       <c r="V33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
       <c r="AB33" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD33" s="36" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD33" s="37">
         <v>0</v>
       </c>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AH33" s="17"/>
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
-      <c r="AK33" s="10" t="n">
+      <c r="AK33" s="10">
         <v>3</v>
       </c>
-      <c r="AL33" s="51" t="n">
+      <c r="AL33" s="52">
         <v>32</v>
       </c>
       <c r="AM33" s="10"/>
       <c r="AN33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="21"/>
+    </row>
+    <row r="34" spans="1:42" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AO33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>130</v>
-      </c>
       <c r="F34" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="59" t="s">
         <v>145</v>
       </c>
+      <c r="G34" s="60" t="s">
+        <v>146</v>
+      </c>
       <c r="H34" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="17" t="n">
+        <v>147</v>
+      </c>
+      <c r="I34" s="17">
         <v>0.01</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="47"/>
+      <c r="L34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="48"/>
       <c r="Q34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
+        <v>148</v>
+      </c>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
+        <v>149</v>
+      </c>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
       <c r="AB34" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD34" s="36" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD34" s="37">
         <v>0</v>
       </c>
       <c r="AE34" s="17"/>
@@ -4064,702 +4311,686 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
-      <c r="AK34" s="10" t="n">
+      <c r="AK34" s="10">
         <v>3</v>
       </c>
-      <c r="AL34" s="51" t="n">
+      <c r="AL34" s="52">
         <v>33</v>
       </c>
       <c r="AM34" s="10"/>
       <c r="AN34" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO34" s="10"/>
+      <c r="AP34" s="21"/>
     </row>
-    <row r="35" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+    <row r="35" spans="1:42" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="44" t="s">
+      <c r="B35" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="C35" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>149</v>
+      <c r="D35" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="24" t="n">
+      <c r="G35" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="25">
         <v>1</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="48"/>
       <c r="V35" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W35" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="X35" s="64"/>
+        <v>56</v>
+      </c>
+      <c r="W35" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="X35" s="65"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
       <c r="AB35" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD35" s="36" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD35" s="37">
         <v>0.04</v>
       </c>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
-      <c r="AG35" s="65" t="s">
-        <v>153</v>
+      <c r="AG35" s="66" t="s">
+        <v>154</v>
       </c>
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK35" s="10" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK35" s="10">
         <v>2</v>
       </c>
-      <c r="AL35" s="51" t="n">
+      <c r="AL35" s="52">
         <v>34</v>
       </c>
       <c r="AM35" s="10"/>
-      <c r="AN35" s="66" t="s">
-        <v>154</v>
+      <c r="AN35" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="AO35" s="10"/>
+      <c r="AP35" s="21"/>
     </row>
-    <row r="36" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+    <row r="36" spans="1:42" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="44" t="s">
+      <c r="B36" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>149</v>
+      <c r="D36" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="G36" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="I36" s="17" t="n">
+      <c r="H36" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="17">
         <v>1</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47" t="s">
-        <v>147</v>
+      <c r="L36" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
       <c r="V36" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W36" s="17"/>
-      <c r="X36" s="47"/>
+      <c r="X36" s="48"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
       <c r="AB36" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD36" s="36" t="n">
+        <v>136</v>
+      </c>
+      <c r="AD36" s="37">
         <v>0.04</v>
       </c>
       <c r="AE36" s="17"/>
       <c r="AF36" s="17"/>
-      <c r="AG36" s="65" t="s">
-        <v>158</v>
+      <c r="AG36" s="66" t="s">
+        <v>159</v>
       </c>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK36" s="10" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK36" s="10">
         <v>2</v>
       </c>
-      <c r="AL36" s="51" t="n">
+      <c r="AL36" s="52">
         <v>35</v>
       </c>
       <c r="AM36" s="10"/>
-      <c r="AN36" s="66" t="s">
-        <v>154</v>
+      <c r="AN36" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="AO36" s="10"/>
+      <c r="AP36" s="21"/>
     </row>
-    <row r="37" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+    <row r="37" spans="1:42" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="C37" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>149</v>
+      <c r="D37" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37" s="69" t="s">
         <v>161</v>
       </c>
+      <c r="H37" s="70" t="s">
+        <v>162</v>
+      </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="24" t="n">
+      <c r="J37" s="25">
         <v>1</v>
       </c>
-      <c r="K37" s="24" t="n">
+      <c r="K37" s="25">
         <v>19</v>
       </c>
-      <c r="L37" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
+      <c r="L37" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
       <c r="V37" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47" t="s">
-        <v>48</v>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD37" s="36" t="n">
+        <v>136</v>
+      </c>
+      <c r="AD37" s="37">
         <v>0.04</v>
       </c>
       <c r="AE37" s="17"/>
       <c r="AF37" s="17"/>
-      <c r="AG37" s="65" t="s">
-        <v>158</v>
+      <c r="AG37" s="66" t="s">
+        <v>159</v>
       </c>
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK37" s="10" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK37" s="10">
         <v>2</v>
       </c>
-      <c r="AL37" s="51" t="n">
+      <c r="AL37" s="52">
         <v>36</v>
       </c>
       <c r="AM37" s="10"/>
-      <c r="AN37" s="66" t="s">
-        <v>154</v>
+      <c r="AN37" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="AO37" s="10"/>
+      <c r="AP37" s="21"/>
     </row>
-    <row r="38" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+    <row r="38" spans="1:42" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="44" t="s">
+      <c r="B38" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="45" t="s">
+      <c r="D38" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="F38" s="46" t="s">
         <v>164</v>
       </c>
+      <c r="G38" s="71" t="s">
+        <v>165</v>
+      </c>
       <c r="H38" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="47" t="n">
+        <v>166</v>
+      </c>
+      <c r="I38" s="48">
         <v>2</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="W38" s="45" t="s">
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC38" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD38" s="49" t="n">
+      <c r="Q38" s="48"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="W38" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC38" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD38" s="50">
         <v>0.1</v>
       </c>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="50" t="n">
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="51">
         <v>2</v>
       </c>
-      <c r="AL38" s="51" t="n">
+      <c r="AL38" s="52">
         <v>37</v>
       </c>
-      <c r="AM38" s="71" t="s">
+      <c r="AM38" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="48">
+        <v>1</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="W39" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="45"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC39" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD39" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="51">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="52">
+        <v>38</v>
+      </c>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="21"/>
     </row>
-    <row r="39" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="44" t="s">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="C40" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="47" t="n">
+      <c r="D40" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="48">
         <v>1</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" s="47" t="s">
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" s="48">
+        <v>5000034</v>
+      </c>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="W39" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC39" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD39" s="49" t="n">
+      <c r="Q40" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="W40" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC40" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD40" s="50">
         <v>0</v>
       </c>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="50" t="n">
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="51">
         <v>3</v>
       </c>
-      <c r="AL39" s="51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO39" s="45"/>
+      <c r="AL40" s="52">
+        <v>39</v>
+      </c>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="21"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="44" t="s">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" s="52">
+        <v>40</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="M40" s="47" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="W40" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC40" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD40" s="49" t="n">
+      <c r="D41" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="77">
         <v>0</v>
       </c>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="51" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO40" s="45"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51" t="n">
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL41" s="52">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="75"/>
-      <c r="AB41" s="75"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="75"/>
-      <c r="AF41" s="75"/>
-      <c r="AG41" s="75"/>
-      <c r="AH41" s="75"/>
-      <c r="AI41" s="75"/>
-      <c r="AJ41" s="75"/>
-      <c r="AK41" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL41" s="51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM41" s="75"/>
-      <c r="AN41" s="75"/>
-      <c r="AO41" s="75"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO41"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AP41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>158</v>
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>153</v>
+    <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="79" t="s">
+      <c r="G1" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="H1" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="80" t="s">
-        <v>183</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="81" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
@@ -25,7 +25,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -635,7 +636,8 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">EO_InforLu</t>
+    <t xml:space="preserve">EO_InforLu
+No_EO_InforLu</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVATION_SSD</t>
@@ -644,13 +646,16 @@
     <t xml:space="preserve">Number of CCH activation points in SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">TRANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEST</t>
+    <t xml:space="preserve">TRANS
+No_TRANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPU
+No_IMPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEST
+No_DEST</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -1353,19 +1358,19 @@
   </sheetPr>
   <dimension ref="A1:AR65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O46" activeCellId="0" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="14" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5026,7 +5031,7 @@
       <c r="L43" s="81"/>
       <c r="M43" s="82"/>
       <c r="N43" s="82"/>
-      <c r="O43" s="81" t="s">
+      <c r="O43" s="82" t="s">
         <v>194</v>
       </c>
       <c r="P43" s="81"/>
@@ -5101,7 +5106,7 @@
       <c r="L44" s="81"/>
       <c r="M44" s="82"/>
       <c r="N44" s="82"/>
-      <c r="O44" s="81" t="s">
+      <c r="O44" s="82" t="s">
         <v>195</v>
       </c>
       <c r="P44" s="81"/>
@@ -5176,7 +5181,7 @@
       <c r="L45" s="81"/>
       <c r="M45" s="82"/>
       <c r="N45" s="82"/>
-      <c r="O45" s="81" t="s">
+      <c r="O45" s="82" t="s">
         <v>196</v>
       </c>
       <c r="P45" s="81"/>
@@ -5228,7 +5233,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ43"/>
+  <autoFilter ref="A1:AQ40"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -13,20 +13,19 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$40</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1356,21 +1355,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR65536"/>
+  <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O46" activeCellId="0" sqref="O46"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="14" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4760,8 +4758,8 @@
       <c r="AQ39" s="47"/>
       <c r="AR39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="53" t="n">
+    <row r="40" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -5221,19 +5219,8 @@
       <c r="AP45" s="81"/>
       <c r="AQ45" s="81"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ40"/>
+  <autoFilter ref="A1:AQ41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5253,7 +5240,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A40 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5290,7 +5277,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A40 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -26,6 +26,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -679,7 +681,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -703,9 +705,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -718,13 +718,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -737,23 +730,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -764,13 +744,21 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,62 +773,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0066"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF767171"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -900,376 +834,144 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1291,7 +993,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -1299,8 +1001,8 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF767171"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1308,7 +1010,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1329,12 +1031,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1358,3866 +1060,3866 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="32.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.246963562753"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="81.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="true" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+    <row r="2" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="18" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="16" t="n">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AN2" s="19" t="n">
+      <c r="AN2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="22"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+    <row r="3" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="18" t="n">
+      <c r="J3" s="11"/>
+      <c r="K3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="27" t="n">
+      <c r="O3" s="9" t="n">
         <v>5449000008046</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="18" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18" t="s">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="29" t="n">
+      <c r="AF3" s="15" t="n">
         <v>0.024996</v>
       </c>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="16" t="n">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN3" s="19" t="n">
+      <c r="AN3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="30" t="s">
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="22"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+    <row r="4" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="18" t="n">
+      <c r="J4" s="11"/>
+      <c r="K4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="27" t="n">
+      <c r="O4" s="9" t="n">
         <v>5449000020987</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="18" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18" t="s">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18" t="s">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" s="29" t="n">
+      <c r="AF4" s="15" t="n">
         <v>0.024996</v>
       </c>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="16" t="n">
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN4" s="19" t="n">
+      <c r="AN4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="30" t="s">
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="22"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+    <row r="5" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="18" t="n">
+      <c r="J5" s="11"/>
+      <c r="K5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="18" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="9" t="n">
         <v>54491472</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="18" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18" t="s">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18" t="s">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18" t="s">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF5" s="33" t="n">
+      <c r="AF5" s="18" t="n">
         <v>0.014004</v>
       </c>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="16" t="n">
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN5" s="19" t="n">
+      <c r="AN5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="36" t="s">
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="22"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+    <row r="6" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="18" t="n">
+      <c r="J6" s="11"/>
+      <c r="K6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="27" t="n">
+      <c r="O6" s="9" t="n">
         <v>54491069</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="18" t="s">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18" t="s">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18" t="s">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18" t="s">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE6" s="18" t="s">
+      <c r="AE6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF6" s="29" t="n">
+      <c r="AF6" s="15" t="n">
         <v>0.014004</v>
       </c>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="16" t="n">
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN6" s="19" t="n">
+      <c r="AN6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="30" t="s">
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="22"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+    <row r="7" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="18" t="n">
+      <c r="J7" s="11"/>
+      <c r="K7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="27" t="n">
+      <c r="O7" s="9" t="n">
         <v>40822938</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="18" t="s">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18" t="s">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF7" s="29" t="n">
+      <c r="AF7" s="15" t="n">
         <v>0.014004</v>
       </c>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="16" t="n">
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN7" s="19" t="n">
+      <c r="AN7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="30" t="s">
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="22"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+    <row r="8" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="18" t="n">
+      <c r="J8" s="11"/>
+      <c r="K8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="27" t="n">
+      <c r="O8" s="9" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18" t="s">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18" t="s">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF8" s="38" t="n">
+      <c r="AF8" s="15" t="n">
         <v>0.014004</v>
       </c>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="16" t="n">
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN8" s="19" t="n">
+      <c r="AN8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="30" t="s">
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="22"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+    <row r="9" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="18" t="n">
+      <c r="J9" s="11"/>
+      <c r="K9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="27" t="n">
+      <c r="O9" s="9" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18" t="s">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18" t="s">
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18" t="s">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="18" t="s">
+      <c r="AE9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF9" s="38" t="n">
+      <c r="AF9" s="15" t="n">
         <v>0.013992</v>
       </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="16" t="n">
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN9" s="19" t="n">
+      <c r="AN9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="30" t="s">
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="22"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+    <row r="10" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="40" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AE10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="39" t="n">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AN10" s="19" t="n">
+      <c r="AN10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="AO10" s="20" t="s">
+      <c r="AO10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="22"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+    <row r="11" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18" t="n">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="27" t="n">
+      <c r="O11" s="9" t="n">
         <v>90494956</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18" t="s">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18" t="s">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18" t="s">
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18" t="s">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AE11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="38" t="n">
+      <c r="AF11" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="16" t="n">
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN11" s="19" t="n">
+      <c r="AN11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="30" t="s">
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="22"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+    <row r="12" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18" t="n">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="9" t="n">
         <v>40822426</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18" t="s">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18" t="s">
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18" t="s">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF12" s="38" t="n">
+      <c r="AF12" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="16" t="n">
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN12" s="19" t="n">
+      <c r="AN12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="30" t="s">
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="22"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+    <row r="13" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18" t="n">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="9" t="n">
         <v>90494406</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18" t="s">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18" t="s">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18" t="s">
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE13" s="18" t="s">
+      <c r="AE13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF13" s="38" t="n">
+      <c r="AF13" s="15" t="n">
         <v>0.012992</v>
       </c>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="16" t="n">
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN13" s="19" t="n">
+      <c r="AN13" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="30" t="s">
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="22"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+    <row r="14" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="40" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE14" s="40" t="s">
+      <c r="AE14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="39" t="n">
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AN14" s="19" t="n">
+      <c r="AN14" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="AO14" s="41" t="s">
+      <c r="AO14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="22"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+    <row r="15" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="n">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="27" t="n">
+      <c r="O15" s="9" t="n">
         <v>5449000045720</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18" t="s">
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18" t="s">
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18" t="s">
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="18" t="s">
+      <c r="AE15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF15" s="38" t="n">
+      <c r="AF15" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="16" t="n">
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN15" s="19" t="n">
+      <c r="AN15" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="30" t="s">
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="22"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+    <row r="16" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18" t="n">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="27" t="n">
+      <c r="O16" s="9" t="n">
         <v>5449000193124</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18" t="s">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18" t="s">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18" t="s">
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="18" t="s">
+      <c r="AE16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF16" s="38" t="n">
+      <c r="AF16" s="15" t="n">
         <v>0.012992</v>
       </c>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="16" t="n">
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN16" s="19" t="n">
+      <c r="AN16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="30" t="s">
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="22"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+    <row r="17" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="n">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O17" s="27" t="n">
+      <c r="O17" s="9" t="n">
         <v>5449000189301</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18" t="s">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18" t="s">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18" t="s">
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="18" t="s">
+      <c r="AE17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF17" s="38" t="n">
+      <c r="AF17" s="15" t="n">
         <v>0.012992</v>
       </c>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="16" t="n">
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN17" s="19" t="n">
+      <c r="AN17" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="30" t="s">
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="22"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+    <row r="18" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18" t="n">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="27" t="n">
+      <c r="O18" s="9" t="n">
         <v>5449000233615</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18" t="s">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18" t="s">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18" t="s">
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE18" s="18" t="s">
+      <c r="AE18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="38" t="n">
+      <c r="AF18" s="15" t="n">
         <v>0.012012</v>
       </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="16" t="n">
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN18" s="19" t="n">
+      <c r="AN18" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="30" t="s">
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="22"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+    <row r="19" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="40" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE19" s="40" t="s">
+      <c r="AE19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="39" t="n">
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AN19" s="19" t="n">
+      <c r="AN19" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AO19" s="41" t="s">
+      <c r="AO19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="22"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+    <row r="20" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18" t="n">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="27" t="n">
+      <c r="O20" s="9" t="n">
         <v>4607174579309</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18" t="s">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18" t="s">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18" t="s">
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18" t="s">
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE20" s="18" t="s">
+      <c r="AE20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF20" s="38" t="n">
+      <c r="AF20" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="16" t="n">
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN20" s="19" t="n">
+      <c r="AN20" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="30" t="s">
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="22"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+    <row r="21" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18" t="n">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="O21" s="27" t="n">
+      <c r="O21" s="9" t="n">
         <v>4607174577787</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18" t="s">
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18" t="s">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18" t="s">
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE21" s="18" t="s">
+      <c r="AE21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF21" s="38" t="n">
+      <c r="AF21" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="16" t="n">
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN21" s="19" t="n">
+      <c r="AN21" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="30" t="s">
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="22"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+    <row r="22" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18" t="n">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="27" t="n">
+      <c r="O22" s="9" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18" t="s">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18" t="s">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18" t="s">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18" t="s">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE22" s="18" t="s">
+      <c r="AE22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF22" s="38" t="n">
+      <c r="AF22" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="16" t="n">
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN22" s="19" t="n">
+      <c r="AN22" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="30" t="s">
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="22"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+    <row r="23" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18" t="n">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O23" s="27" t="n">
+      <c r="O23" s="9" t="n">
         <v>4607174579323</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18" t="s">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18" t="s">
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18" t="s">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18" t="s">
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE23" s="18" t="s">
+      <c r="AE23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF23" s="38" t="n">
+      <c r="AF23" s="15" t="n">
         <v>0.025004</v>
       </c>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="16" t="n">
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN23" s="19" t="n">
+      <c r="AN23" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="30" t="s">
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="22"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+    <row r="24" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18" t="n">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O24" s="43" t="n">
+      <c r="O24" s="9" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18" t="s">
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18" t="s">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18" t="s">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18" t="s">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" s="18" t="s">
+      <c r="AE24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF24" s="38" t="n">
+      <c r="AF24" s="15" t="n">
         <v>0.012012</v>
       </c>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="16" t="n">
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN24" s="19" t="n">
+      <c r="AN24" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="30" t="s">
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="22"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+    <row r="25" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="44" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18" t="n">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18" t="s">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O25" s="27" t="n">
+      <c r="O25" s="9" t="n">
         <v>4607174579248</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18" t="s">
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18" t="s">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18" t="s">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE25" s="18" t="s">
+      <c r="AE25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF25" s="38" t="n">
+      <c r="AF25" s="15" t="n">
         <v>0.012012</v>
       </c>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="16" t="n">
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN25" s="19" t="n">
+      <c r="AN25" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="30" t="s">
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="22"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+    <row r="26" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="44" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18" t="n">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18" t="s">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O26" s="27" t="n">
+      <c r="O26" s="9" t="n">
         <v>4607174578265</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18" t="s">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18" t="s">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18" t="s">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18" t="s">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE26" s="18" t="s">
+      <c r="AE26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF26" s="38" t="n">
+      <c r="AF26" s="15" t="n">
         <v>0.009996</v>
       </c>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="16" t="n">
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN26" s="19" t="n">
+      <c r="AN26" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="30" t="s">
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="22"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+    <row r="27" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18" t="n">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O27" s="27" t="n">
+      <c r="O27" s="9" t="n">
         <v>4607174578586</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18" t="s">
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="18" t="s">
+      <c r="S27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18" t="s">
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18" t="s">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18" t="s">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE27" s="18" t="s">
+      <c r="AE27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF27" s="38" t="n">
+      <c r="AF27" s="15" t="n">
         <v>0.009996</v>
       </c>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="16" t="n">
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN27" s="19" t="n">
+      <c r="AN27" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="30" t="s">
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="22"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+    <row r="28" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18" t="n">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O28" s="27" t="n">
+      <c r="O28" s="9" t="n">
         <v>4607174579262</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18" t="s">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18" t="s">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18" t="s">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18" t="s">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE28" s="18" t="s">
+      <c r="AE28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="38" t="n">
+      <c r="AF28" s="15" t="n">
         <v>0.009968</v>
       </c>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="16" t="n">
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AN28" s="19" t="n">
+      <c r="AN28" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="30" t="s">
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="22"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+    <row r="29" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="47" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49" t="n">
+      <c r="J29" s="0"/>
+      <c r="K29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="50" t="s">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="49" t="s">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50" t="s">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="49" t="s">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE29" s="49" t="s">
+      <c r="AE29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF29" s="51" t="n">
+      <c r="AF29" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="52" t="n">
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN29" s="53" t="n">
+      <c r="AN29" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="22" t="s">
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+    <row r="30" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="47" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49" t="n">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="49" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="49" t="s">
+      <c r="P30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="49" t="s">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="T30" s="55" t="s">
+      <c r="T30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="49" t="s">
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Y30" s="56" t="s">
+      <c r="Y30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="49" t="s">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE30" s="49" t="s">
+      <c r="AE30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF30" s="51" t="n">
+      <c r="AF30" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="52" t="n">
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN30" s="53" t="n">
+      <c r="AN30" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="22" t="s">
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+    <row r="31" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="47" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49" t="n">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="49" t="s">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="49" t="s">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="55" t="s">
+      <c r="T31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="49" t="s">
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Y31" s="49" t="s">
+      <c r="Y31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="49" t="s">
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE31" s="49" t="s">
+      <c r="AE31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF31" s="51" t="n">
+      <c r="AF31" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="52" t="n">
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN31" s="53" t="n">
+      <c r="AN31" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="22" t="s">
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+    <row r="32" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="2" t="s">
+      <c r="J32" s="8"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="18" t="s">
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE32" s="18" t="s">
+      <c r="AE32" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AF32" s="38" t="n">
+      <c r="AF32" s="15" t="n">
         <v>0.08</v>
       </c>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="59" t="s">
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="11" t="n">
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN32" s="53" t="n">
+      <c r="AN32" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="AO32" s="60" t="s">
+      <c r="AO32" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="22"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
+    <row r="33" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="62" t="s">
+      <c r="I33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="18" t="n">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="49" t="s">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="18" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="18" t="s">
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE33" s="18" t="s">
+      <c r="AE33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF33" s="38" t="n">
+      <c r="AF33" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18" t="s">
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="11" t="n">
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AN33" s="53" t="n">
+      <c r="AN33" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11" t="s">
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="22"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+    <row r="34" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18" t="n">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="49" t="s">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="2" t="s">
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="18" t="s">
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="18" t="s">
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE34" s="18" t="s">
+      <c r="AE34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF34" s="38" t="n">
+      <c r="AF34" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="11" t="n">
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AN34" s="53" t="n">
+      <c r="AN34" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11" t="s">
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="22"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+    <row r="35" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="26" t="n">
+      <c r="J35" s="0"/>
+      <c r="K35" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="65" t="s">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="18" t="s">
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="65" t="s">
+      <c r="Y35" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="18" t="s">
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE35" s="18" t="s">
+      <c r="AE35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF35" s="38" t="n">
+      <c r="AF35" s="15" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="67" t="s">
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18" t="s">
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AM35" s="11" t="n">
+      <c r="AM35" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN35" s="53" t="n">
+      <c r="AN35" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="68" t="s">
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="22"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+    <row r="36" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="J36" s="70"/>
-      <c r="K36" s="18" t="n">
+      <c r="J36" s="11"/>
+      <c r="K36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="49" t="s">
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="18" t="s">
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="18" t="s">
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE36" s="18" t="s">
+      <c r="AE36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AF36" s="38" t="n">
+      <c r="AF36" s="15" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="67" t="s">
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18" t="s">
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AM36" s="11" t="n">
+      <c r="AM36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN36" s="53" t="n">
+      <c r="AN36" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="68" t="s">
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="22"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+    <row r="37" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="26" t="n">
+      <c r="J37" s="11"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="M37" s="26" t="n">
+      <c r="M37" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="N37" s="49" t="s">
+      <c r="N37" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="18" t="s">
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49" t="s">
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="18" t="s">
+      <c r="AE37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AF37" s="38" t="n">
+      <c r="AF37" s="15" t="n">
         <v>0.04</v>
       </c>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="67" t="s">
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18" t="s">
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AM37" s="11" t="n">
+      <c r="AM37" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN37" s="53" t="n">
+      <c r="AN37" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="68" t="s">
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="22"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+    <row r="38" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="47" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="49" t="n">
+      <c r="J38" s="8"/>
+      <c r="K38" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="49" t="s">
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="S38" s="49"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="49" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Y38" s="47" t="s">
+      <c r="Y38" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="49" t="s">
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE38" s="49" t="s">
+      <c r="AE38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF38" s="51" t="n">
+      <c r="AF38" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="47"/>
-      <c r="AL38" s="47"/>
-      <c r="AM38" s="52" t="n">
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AN38" s="53" t="n">
+      <c r="AN38" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="AO38" s="73" t="s">
+      <c r="AO38" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="22" t="s">
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+    <row r="39" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="47" t="s">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="74" t="s">
+      <c r="H39" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="49" t="n">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="18" t="s">
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="49" t="s">
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S39" s="49" t="s">
+      <c r="S39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="49" t="s">
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Y39" s="47" t="s">
+      <c r="Y39" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="49" t="s">
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE39" s="49" t="s">
+      <c r="AE39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="51" t="n">
+      <c r="AF39" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="52" t="n">
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AN39" s="53" t="n">
+      <c r="AN39" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47" t="s">
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="22"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+    <row r="40" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="47" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="74" t="s">
+      <c r="H40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="49" t="n">
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="49" t="s">
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="O40" s="49" t="n">
+      <c r="O40" s="7" t="n">
         <v>5000034</v>
       </c>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="49" t="s">
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="49" t="s">
+      <c r="S40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="49" t="s">
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Y40" s="47" t="s">
+      <c r="Y40" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="49" t="s">
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE40" s="49" t="s">
+      <c r="AE40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF40" s="51" t="n">
+      <c r="AF40" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="75" t="s">
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="52" t="n">
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AN40" s="53" t="n">
+      <c r="AN40" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47" t="s">
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="22"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="53" t="n">
+    <row r="41" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="77" t="s">
+      <c r="E41" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="80" t="s">
+      <c r="H41" s="27"/>
+      <c r="I41" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="81" t="s">
+      <c r="J41" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81" t="s">
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="83" t="n">
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="81"/>
-      <c r="AI41" s="81"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="81"/>
-      <c r="AL41" s="84"/>
-      <c r="AM41" s="85"/>
-      <c r="AN41" s="53" t="n">
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="AO41" s="86" t="s">
+      <c r="AO41" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AP41" s="81"/>
-      <c r="AQ41" s="81"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
     </row>
-    <row r="42" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="n">
+    <row r="42" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="F42" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="I42" s="87" t="s">
+      <c r="I42" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J42" s="82" t="s">
+      <c r="J42" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82" t="s">
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81" t="s">
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="81"/>
-      <c r="Z42" s="81"/>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="83" t="n">
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="81"/>
-      <c r="AH42" s="81"/>
-      <c r="AI42" s="81"/>
-      <c r="AJ42" s="81"/>
-      <c r="AK42" s="81"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="85"/>
-      <c r="AN42" s="53" t="n">
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="AO42" s="86" t="n">
+      <c r="AO42" s="28" t="n">
         <v>37</v>
       </c>
-      <c r="AP42" s="81"/>
-      <c r="AQ42" s="81"/>
+      <c r="AP42" s="27"/>
+      <c r="AQ42" s="27"/>
     </row>
-    <row r="43" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="53" t="n">
+    <row r="43" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G43" s="78" t="s">
+      <c r="G43" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="87" t="s">
+      <c r="I43" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J43" s="82" t="s">
+      <c r="J43" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82" t="s">
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81" t="s">
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="81"/>
-      <c r="AF43" s="83" t="n">
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="81"/>
-      <c r="AH43" s="81"/>
-      <c r="AI43" s="81"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="81"/>
-      <c r="AL43" s="84"/>
-      <c r="AM43" s="85"/>
-      <c r="AN43" s="53" t="n">
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="AO43" s="86" t="n">
+      <c r="AO43" s="28" t="n">
         <v>28</v>
       </c>
-      <c r="AP43" s="81"/>
-      <c r="AQ43" s="81"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
     </row>
-    <row r="44" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="53" t="n">
+    <row r="44" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="78" t="s">
+      <c r="G44" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J44" s="82" t="s">
+      <c r="J44" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82" t="s">
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81" t="s">
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="81"/>
-      <c r="Z44" s="81"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="81"/>
-      <c r="AF44" s="83" t="n">
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="81"/>
-      <c r="AH44" s="81"/>
-      <c r="AI44" s="81"/>
-      <c r="AJ44" s="81"/>
-      <c r="AK44" s="81"/>
-      <c r="AL44" s="84"/>
-      <c r="AM44" s="85"/>
-      <c r="AN44" s="53" t="n">
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="AO44" s="86" t="n">
+      <c r="AO44" s="28" t="n">
         <v>29</v>
       </c>
-      <c r="AP44" s="81"/>
-      <c r="AQ44" s="81"/>
+      <c r="AP44" s="27"/>
+      <c r="AQ44" s="27"/>
     </row>
-    <row r="45" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="53" t="n">
+    <row r="45" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G45" s="78" t="s">
+      <c r="G45" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="87" t="s">
+      <c r="I45" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="82" t="s">
+      <c r="J45" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82" t="s">
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81" t="s">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="83" t="n">
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="84"/>
-      <c r="AM45" s="85"/>
-      <c r="AN45" s="53" t="n">
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="86" t="n">
+      <c r="AO45" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AP45" s="81"/>
-      <c r="AQ45" s="81"/>
+      <c r="AP45" s="27"/>
+      <c r="AQ45" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ41"/>
@@ -5240,7 +4942,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A40 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5249,12 +4951,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="30" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5277,7 +4979,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A40 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5286,48 +4988,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="33" t="s">
         <v>200</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="205">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -387,16 +388,28 @@
     <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 0.2л</t>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.175L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.175л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.175L, Moya Semya - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421192, 4607174578265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 0.175L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мульти-Фрути - 0.175л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 0.175L, Moya Semya - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421338, 4607174578586</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Peach-Apple - 0.33L</t>
@@ -758,7 +771,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +782,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -838,7 +857,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,6 +938,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,7 +994,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,16 +1095,16 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.4493927125506"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.5465587044534"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3271,10 +3306,10 @@
         <v>73</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="20" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -3286,11 +3321,11 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" s="9" t="n">
-        <v>4607174578265</v>
+      <c r="N26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -3359,11 +3394,11 @@
         <v>73</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>112</v>
+      <c r="G27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>55</v>
@@ -3374,11 +3409,11 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O27" s="9" t="n">
-        <v>4607174578586</v>
+      <c r="N27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -3448,10 +3483,10 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>55</v>
@@ -3463,7 +3498,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O28" s="9" t="n">
         <v>4607174579262</v>
@@ -3532,17 +3567,17 @@
         <v>46</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J29" s="0"/>
       <c r="K29" s="7" t="n">
@@ -3552,7 +3587,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -3560,7 +3595,7 @@
         <v>56</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3568,7 +3603,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -3580,7 +3615,7 @@
       <c r="AE29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF29" s="20" t="n">
+      <c r="AF29" s="24" t="n">
         <v>0.1</v>
       </c>
       <c r="AG29" s="7"/>
@@ -3616,14 +3651,14 @@
         <v>46</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>55</v>
@@ -3635,32 +3670,32 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7" t="s">
         <v>56</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -3672,7 +3707,7 @@
       <c r="AE30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF30" s="20" t="n">
+      <c r="AF30" s="24" t="n">
         <v>0.1</v>
       </c>
       <c r="AG30" s="7"/>
@@ -3708,14 +3743,14 @@
         <v>46</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>55</v>
@@ -3727,32 +3762,32 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7" t="s">
         <v>56</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -3764,7 +3799,7 @@
       <c r="AE31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF31" s="20" t="n">
+      <c r="AF31" s="24" t="n">
         <v>0.1</v>
       </c>
       <c r="AG31" s="7"/>
@@ -3800,28 +3835,28 @@
         <v>46</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="0"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
       <c r="R32" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -3838,7 +3873,7 @@
         <v>51</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF32" s="15" t="n">
         <v>0.08</v>
@@ -3846,7 +3881,7 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
@@ -3858,7 +3893,7 @@
         <v>31</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
@@ -3878,17 +3913,17 @@
         <v>46</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8" t="n">
@@ -3897,7 +3932,7 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -3909,7 +3944,7 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
@@ -3928,7 +3963,7 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
@@ -3941,7 +3976,7 @@
       </c>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="12"/>
@@ -3960,17 +3995,17 @@
         <v>46</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8" t="n">
@@ -3979,21 +4014,21 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -4023,7 +4058,7 @@
       </c>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="12"/>
@@ -4042,17 +4077,17 @@
         <v>46</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="11" t="n">
@@ -4062,25 +4097,25 @@
       <c r="M35" s="8"/>
       <c r="N35" s="7"/>
       <c r="O35" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+        <v>159</v>
+      </c>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="22"/>
+      <c r="V35" s="26"/>
       <c r="W35" s="7"/>
       <c r="X35" s="8" t="s">
         <v>58</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z35" s="22"/>
+        <v>159</v>
+      </c>
+      <c r="Z35" s="26"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
@@ -4096,12 +4131,12 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
       <c r="AL35" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AM35" s="7" t="n">
         <v>2</v>
@@ -4110,8 +4145,8 @@
         <v>34</v>
       </c>
       <c r="AO35" s="7"/>
-      <c r="AP35" s="23" t="s">
-        <v>157</v>
+      <c r="AP35" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="12"/>
@@ -4130,17 +4165,17 @@
         <v>46</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="8" t="n">
@@ -4149,21 +4184,21 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="7"/>
@@ -4174,7 +4209,7 @@
         <v>51</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF36" s="15" t="n">
         <v>0.04</v>
@@ -4182,12 +4217,12 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
       <c r="AL36" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AM36" s="7" t="n">
         <v>2</v>
@@ -4196,8 +4231,8 @@
         <v>35</v>
       </c>
       <c r="AO36" s="7"/>
-      <c r="AP36" s="23" t="s">
-        <v>157</v>
+      <c r="AP36" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="12"/>
@@ -4216,17 +4251,17 @@
         <v>46</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="8"/>
@@ -4237,11 +4272,11 @@
         <v>19</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -4249,7 +4284,7 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -4260,7 +4295,7 @@
         <v>51</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF37" s="15" t="n">
         <v>0.04</v>
@@ -4268,12 +4303,12 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AM37" s="7" t="n">
         <v>2</v>
@@ -4282,8 +4317,8 @@
         <v>36</v>
       </c>
       <c r="AO37" s="7"/>
-      <c r="AP37" s="23" t="s">
-        <v>157</v>
+      <c r="AP37" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="12"/>
@@ -4302,17 +4337,17 @@
         <v>46</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="7" t="n">
@@ -4325,7 +4360,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -4333,10 +4368,10 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y38" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4348,7 +4383,7 @@
       <c r="AE38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF38" s="20" t="n">
+      <c r="AF38" s="24" t="n">
         <v>0.1</v>
       </c>
       <c r="AG38" s="7"/>
@@ -4364,7 +4399,7 @@
         <v>37</v>
       </c>
       <c r="AO38" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
@@ -4386,14 +4421,14 @@
         <v>46</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>55</v>
@@ -4405,10 +4440,10 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -4423,10 +4458,10 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y39" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -4438,7 +4473,7 @@
       <c r="AE39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="20" t="n">
+      <c r="AF39" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AG39" s="7"/>
@@ -4455,7 +4490,7 @@
       </c>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="12"/>
@@ -4474,14 +4509,14 @@
         <v>46</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>55</v>
@@ -4493,7 +4528,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O40" s="7" t="n">
         <v>5000034</v>
@@ -4511,10 +4546,10 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -4526,13 +4561,13 @@
       <c r="AE40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF40" s="20" t="n">
+      <c r="AF40" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
@@ -4545,7 +4580,7 @@
       </c>
       <c r="AO40" s="7"/>
       <c r="AP40" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="12"/>
@@ -4560,66 +4595,66 @@
       <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="J41" s="27" t="s">
+      <c r="D41" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27" t="s">
+      <c r="E41" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="29" t="n">
+      <c r="F41" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
       <c r="AL41" s="7"/>
-      <c r="AM41" s="27"/>
+      <c r="AM41" s="31"/>
       <c r="AN41" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="AO41" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
+      <c r="AO41" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
@@ -4631,70 +4666,70 @@
       <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="28" t="s">
+      <c r="D42" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J42" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="29" t="n">
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
       <c r="AL42" s="7"/>
-      <c r="AM42" s="27"/>
+      <c r="AM42" s="31"/>
       <c r="AN42" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="AO42" s="28" t="n">
+      <c r="AO42" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
@@ -4706,70 +4741,70 @@
       <c r="C43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="26" t="s">
+      <c r="D43" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="28" t="s">
+      <c r="J43" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J43" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="29" t="n">
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="31"/>
       <c r="AL43" s="7"/>
-      <c r="AM43" s="27"/>
+      <c r="AM43" s="31"/>
       <c r="AN43" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="AO43" s="28" t="n">
+      <c r="AO43" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
+      <c r="AP43" s="31"/>
+      <c r="AQ43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
@@ -4781,70 +4816,70 @@
       <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G44" s="26" t="s">
+      <c r="D44" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="28" t="s">
+      <c r="J44" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J44" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="29" t="n">
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
       <c r="AL44" s="7"/>
-      <c r="AM44" s="27"/>
+      <c r="AM44" s="31"/>
       <c r="AN44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="AO44" s="28" t="n">
+      <c r="AO44" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="32.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
@@ -4856,70 +4891,70 @@
       <c r="C45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="26" t="s">
+      <c r="D45" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="28" t="s">
+      <c r="J45" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="29" t="n">
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
       <c r="AL45" s="7"/>
-      <c r="AM45" s="27"/>
+      <c r="AM45" s="31"/>
       <c r="AN45" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="28" t="n">
+      <c r="AO45" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ41"/>
@@ -4942,22 +4977,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N26:O27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>161</v>
+      <c r="A1" s="34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>156</v>
+      <c r="A2" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4979,58 +5014,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N26:O27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
-        <v>200</v>
+      <c r="B4" s="37" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -1095,9 +1095,9 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26:O27"/>
+      <selection pane="bottomLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.45"/>
@@ -4977,7 +4977,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N26:O27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5014,7 +5014,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N26:O27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Canteen PoS 2018.xlsx
@@ -29,6 +29,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -255,16 +257,16 @@
     <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+    <t xml:space="preserve">Sprite - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.25л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин – 0.25л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
@@ -388,7 +390,7 @@
     <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Apple mix - 0.175L</t>
+    <t xml:space="preserve">Moya Semya - Apple Mix - 0.175L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.175л</t>
@@ -938,9 +940,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -950,9 +952,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1094,17 +1096,17 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="47.417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="16.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="62.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1770,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -1785,11 +1787,11 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="9" t="n">
-        <v>5449000014535</v>
+      <c r="O8" s="22" t="n">
+        <v>5449000000729</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -1858,7 +1860,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -1873,11 +1875,11 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="9" t="n">
-        <v>5449000011527</v>
+      <c r="O9" s="22" t="n">
+        <v>5449000000712</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -3306,10 +3308,10 @@
         <v>73</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="23" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -3394,10 +3396,10 @@
         <v>73</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="23" t="s">
         <v>114</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -4976,13 +4978,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,13 +5015,13 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
